--- a/biology/Botanique/Parc_Paul-Chastellain/Parc_Paul-Chastellain.xlsx
+++ b/biology/Botanique/Parc_Paul-Chastellain/Parc_Paul-Chastellain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Paul-Chastellain est un jardin public de la ville de Tarbes, dans le département français des Hautes-Pyrénées.
@@ -512,9 +524,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc porte le nom du maire de Tarbes qui est à l'origine du projet, Paul Chastellain[1], il a une superficie de 2,3 ha et combine des arbres centenaires avec de nouvelles plantations.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc porte le nom du maire de Tarbes qui est à l'origine du projet, Paul Chastellain, il a une superficie de 2,3 ha et combine des arbres centenaires avec de nouvelles plantations.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le quartier d'Ormeau-Figarol (canton de Tarbes 3) et a pour accès le chemin de l’Ormeau et la rue du IV Septembre.
 </t>
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc fait partie de l'ancienne propriété de la famille Fould, meublée dans les années 1840, qui a été achetée par la ville de Tarbes en 1978, il a été rénové et modernisé entre 1981 et 1982.
 Dans le parc, nous trouvons la villa Fould, avec ses vestiges historiques et impériaux, construite par Achille Fould, ministre d'État de Napoléon III.
@@ -607,7 +625,9 @@
           <t>Espèces végétales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parc paysager à l'anglaise dans lequel de grands arbres forment des allées ombragées, avec plan d’eau, ainsi que de nombreuses fleurs de saison.
 Il comprend un plan d'eau alimenté par des cascades et de grandes pelouses qui dégagent de belles perspectives sur la villa. Un terrain de jeu a été construit au bord du lac en 1981.
